--- a/aichan/499016796831690504_2021-03-07_02-00-02.xlsx
+++ b/aichan/499016796831690504_2021-03-07_02-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:30:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44325.39641203704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -607,10 +621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:40:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44315.69482638889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -683,10 +695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:08:48</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44306.50611111111</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:29:19</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44305.0203587963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -840,10 +848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:27:13</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44302.31056712963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -919,10 +925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:27</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44271.76697916666</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +1002,8 @@
           <t>4255437983</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:41:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44267.77859953704</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:34:28</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44267.52393518519</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1136,10 +1136,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-11 23:34:12</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44266.98208333334</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>4252334372</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-11 23:11:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44266.96620370371</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1283,10 +1279,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-11 20:37:48</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44266.85958333333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1363,10 +1357,8 @@
           <t>4245674702</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-10 13:37:53</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44265.56797453704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1438,10 +1430,8 @@
           <t>4245144877</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-10 11:22:03</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44265.47364583334</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1513,10 +1503,8 @@
           <t>4244590592</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-10 07:35:46</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44265.31650462963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1576,10 +1564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-09 21:25:41</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44264.89283564815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1647,10 +1633,8 @@
           <t>4241782664</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-09 16:11:59</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44264.67498842593</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1726,10 +1710,8 @@
           <t>4236439482</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-09 13:46:31</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44264.5739699074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1797,10 +1779,8 @@
           <t>4240982643</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-09 12:20:06</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44264.51395833334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1860,10 +1840,8 @@
           <t>4236439482</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-08 11:45:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44263.48981481481</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1939,10 +1917,8 @@
           <t>4236106741</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-08 09:48:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44263.40879629629</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2010,10 +1986,8 @@
           <t>4235900670</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-08 08:16:03</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44263.34447916667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2078,10 +2052,8 @@
           <t>4234373257</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-07 21:31:34</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44262.8969212963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2141,10 +2113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-07 20:13:23</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44262.84262731481</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-07 18:51:37</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44262.7858449074</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>4233404290</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-07 18:10:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44262.75694444445</v>
       </c>
       <c r="I26" t="n">
         <v>10</v>
@@ -2366,10 +2332,8 @@
           <t>4233365714</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-07 18:00:48</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44262.75055555555</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2429,10 +2393,8 @@
           <t>4233332822</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:54:58</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44262.74650462963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2504,10 +2466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:29:19</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44262.72869212963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2579,10 +2539,8 @@
           <t>4232994703</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:22:44</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44262.72412037037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2654,10 +2612,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:18:54</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44262.72145833333</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2721,10 +2677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:18:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44262.72101851852</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2793,10 +2747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:17:42</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44262.720625</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2868,10 +2820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-07 17:15:29</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44262.71908564815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2935,10 +2885,8 @@
           <t>4232994703</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-07 16:42:11</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44262.69596064815</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3003,10 +2951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-07 16:14:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44262.67677083334</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3070,10 +3016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-07 15:18:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44262.63756944444</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3149,10 +3093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-07 14:30:53</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44262.6047800926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3220,10 +3162,8 @@
           <t>4232335305</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-07 14:04:30</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44262.58645833333</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3287,10 +3227,8 @@
           <t>4232286995</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:54:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44262.57934027778</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3362,10 +3300,8 @@
           <t>4232285134</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:52:58</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44262.57844907408</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3439,10 +3375,8 @@
           <t>4232049729</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:24:21</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44262.55857638889</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3514,10 +3448,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:04:43</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44262.54494212963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3589,10 +3521,8 @@
           <t>4232049729</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-07 13:04:36</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44262.54486111111</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3660,10 +3590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-07 12:29:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44262.52077546297</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3731,10 +3659,8 @@
           <t>4231775464</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-07 12:09:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44262.50678240741</v>
       </c>
       <c r="I46" t="n">
         <v>17</v>
@@ -3810,10 +3736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-07 12:08:08</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44262.50564814815</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3889,10 +3813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-07 12:01:33</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44262.50107638889</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3968,10 +3890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:54:48</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44262.49638888889</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4039,10 +3959,8 @@
           <t>4228149196</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:46:56</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44262.49092592593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4106,10 +4024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:33:09</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44262.48135416667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4177,10 +4093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:19:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44262.47152777778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4252,10 +4166,8 @@
           <t>4231512360</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:15:36</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44262.46916666667</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4331,10 +4243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:06:16</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44262.46268518519</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4402,10 +4312,8 @@
           <t>4231438653</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:00:01</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44262.45834490741</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4469,10 +4377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-07 10:51:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44262.45215277778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4548,10 +4454,8 @@
           <t>4231328674</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-07 10:34:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44262.44048611111</v>
       </c>
       <c r="I57" t="n">
         <v>7</v>
@@ -4615,10 +4519,8 @@
           <t>4231317684</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-07 10:30:53</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44262.43811342592</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4686,10 +4588,8 @@
           <t>4231151393</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:46:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44262.40759259259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4761,10 +4661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:40:12</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44262.40291666667</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4832,10 +4730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:36:21</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44262.40024305556</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4899,10 +4795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:24:27</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44262.39197916666</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4970,10 +4864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:23:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44262.39133101852</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5045,10 +4937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:12:52</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44262.38393518519</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5112,10 +5002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:08:48</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44262.38111111111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5187,10 +5075,8 @@
           <t>4230900649</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-07 08:20:31</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44262.34758101852</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5255,10 +5141,8 @@
           <t>4230839675</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-07 07:55:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44262.33027777778</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5326,10 +5210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-07 07:05:02</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44262.29516203704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5406,10 +5288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-07 04:23:29</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44262.18297453703</v>
       </c>
       <c r="I69" t="n">
         <v>591</v>
@@ -5481,10 +5361,8 @@
           <t>4228006636</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-07 03:00:44</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44262.12550925926</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5556,10 +5434,8 @@
           <t>4228191564</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-07 02:58:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44262.12394675926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5627,10 +5503,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-07 02:54:15</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44262.12100694444</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5702,10 +5576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-07 02:30:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44262.1044675926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5781,10 +5653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-07 02:20:24</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44262.0975</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5856,10 +5726,8 @@
           <t>4230503459</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-07 02:14:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44262.09314814815</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5927,10 +5795,8 @@
           <t>4230449477</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-07 01:52:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44262.07841435185</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5994,10 +5860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-07 01:42:24</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44262.07111111111</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6062,10 +5926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-07 01:40:31</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44262.06980324074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6129,10 +5991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-07 01:28:13</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44262.06126157408</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6208,10 +6068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-07 01:12:41</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44262.05047453703</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6283,10 +6141,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:57:46</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44262.04011574074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6354,10 +6210,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:55:21</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44262.0384375</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6433,10 +6287,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:53:09</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44262.03690972222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6504,10 +6356,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:52:11</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44262.03623842593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6583,10 +6433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:49:32</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44262.03439814815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6664,10 +6512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:35:09</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44262.02440972222</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6735,10 +6581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:30:46</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44262.02136574074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6810,10 +6654,8 @@
           <t>4230156819</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:27:45</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44262.01927083333</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6885,10 +6727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:24:57</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44262.01732638889</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6956,10 +6796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:21:34</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44262.01497685185</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7027,10 +6865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-07 00:03:14</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44262.00224537037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7102,10 +6938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:53:43</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44261.99563657407</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7177,10 +7011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:46:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44261.99046296296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7256,10 +7088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:42:39</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44261.98795138889</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7331,10 +7161,8 @@
           <t>4229884950</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:38:19</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44261.98494212963</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7417,10 +7245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:22:05</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44261.97366898148</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7480,10 +7306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:20:22</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44261.97247685185</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7563,10 +7387,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:16:08</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44261.96953703704</v>
       </c>
       <c r="I98" t="n">
         <v>11</v>
@@ -7630,10 +7452,8 @@
           <t>4229676571</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:02:31</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44261.96008101852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7709,10 +7529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-06 23:01:18</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44261.95923611111</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7776,10 +7594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:58:34</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44261.95733796297</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7847,10 +7663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:58:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44261.95706018519</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7918,10 +7732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:57:47</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44261.95679398148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7989,10 +7801,8 @@
           <t>4229588730</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:49:12</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44261.95083333334</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8068,10 +7878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:46:23</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44261.94887731481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8147,10 +7955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:42:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44261.94633101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8226,10 +8032,8 @@
           <t>4229536648</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:41:11</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44261.9452662037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8305,10 +8109,8 @@
           <t>4229526593</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:39:06</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44261.94381944444</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8384,10 +8186,8 @@
           <t>4229507395</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:36:53</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44261.94228009259</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8463,10 +8263,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:34:58</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44261.94094907407</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8534,10 +8332,8 @@
           <t>4229502289</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:34:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44261.94092592593</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8616,10 +8412,8 @@
           <t>4228149196</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:29:04</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44261.93685185185</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8691,10 +8485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:22:40</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44261.93240740741</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8762,10 +8554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:13:10</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44261.92581018519</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8837,10 +8627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:10:33</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44261.92399305556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8904,10 +8692,8 @@
           <t>4229319129</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:05:56</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44261.92078703704</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -8967,10 +8753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:01:42</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44261.91784722222</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9034,10 +8818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:01:02</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44261.91738425926</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9113,10 +8895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-06 22:00:44</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44261.91717592593</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9193,10 +8973,8 @@
           <t>4229240367</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:59:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44261.91662037037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9260,10 +9038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:59:17</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44261.91616898148</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9327,10 +9103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:54:20</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44261.91273148148</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9390,10 +9164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:53:49</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44261.91237268518</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9457,10 +9229,8 @@
           <t>4229240367</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:51:03</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44261.91045138889</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9524,10 +9294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:43:00</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44261.90486111111</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9599,10 +9367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:40:08</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44261.90287037037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9678,10 +9444,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:34:36</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44261.89902777778</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9753,10 +9517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:33:43</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44261.89841435185</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9832,10 +9594,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:31:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44261.89708333334</v>
       </c>
       <c r="I129" t="n">
         <v>13</v>
@@ -9899,10 +9659,8 @@
           <t>4229108129</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:29:17</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44261.89533564815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9966,10 +9724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:25:14</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44261.89252314815</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10033,10 +9789,8 @@
           <t>4229084196</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:25:05</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44261.89241898148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10108,10 +9862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:21:59</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44261.89026620371</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10187,10 +9939,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:20:54</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44261.88951388889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10262,10 +10012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:13:41</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44261.88450231482</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10329,10 +10077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:13:40</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44261.88449074074</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10404,10 +10150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:10:10</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44261.88206018518</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10480,10 +10224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:08:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44261.88109953704</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10551,10 +10293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:02:18</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44261.87659722222</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10618,10 +10358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:01:57</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44261.87635416666</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10685,10 +10423,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:56:15</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44261.87239583334</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10752,10 +10488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:55:34</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44261.8719212963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10831,10 +10565,8 @@
           <t>4228222108</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:55:06</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44261.87159722222</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10910,10 +10642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:54:24</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44261.87111111111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10977,10 +10707,8 @@
           <t>4228200443</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:52:12</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44261.86958333333</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11056,10 +10784,8 @@
           <t>4228877502</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:47:35</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44261.86637731481</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11131,10 +10857,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:41:45</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44261.86232638889</v>
       </c>
       <c r="I147" t="n">
         <v>9</v>
@@ -11202,10 +10926,8 @@
           <t>4228835286</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:40:53</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44261.86172453704</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11281,10 +11003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:36:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44261.85842592592</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11360,10 +11080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:34:42</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44261.85743055555</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11435,10 +11153,8 @@
           <t>4228782692</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:31:08</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44261.8549537037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11514,10 +11230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:25:17</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44261.85089120371</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11585,10 +11299,8 @@
           <t>4228743981</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:23:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44261.84978009259</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11656,10 +11368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:23:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44261.84944444444</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11731,10 +11441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:20:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44261.8474537037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11798,10 +11506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:18:38</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44261.84627314815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11869,10 +11575,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:13:36</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44261.84277777778</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11948,10 +11652,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:13:28</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44261.84268518518</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12027,10 +11729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:13:27</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44261.84267361111</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12107,10 +11807,8 @@
           <t>4228688339</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:13:13</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44261.84251157408</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12178,10 +11876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:12:17</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44261.84186342593</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12257,10 +11953,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:10:12</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44261.84041666667</v>
       </c>
       <c r="I162" t="n">
         <v>10</v>
@@ -12324,10 +12018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:09:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44261.8397800926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12395,10 +12087,8 @@
           <t>4228671512</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:09:13</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44261.8397337963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12466,10 +12156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:07:24</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44261.83847222223</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12542,10 +12230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:07:01</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44261.83820601852</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12609,10 +12295,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:06:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44261.83803240741</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12684,10 +12368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:06:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44261.83787037037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12751,10 +12433,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:05:43</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44261.83730324074</v>
       </c>
       <c r="I169" t="n">
         <v>11</v>
@@ -12822,10 +12502,8 @@
           <t>4227994274</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:05:17</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44261.83700231482</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12897,10 +12575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:04:57</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44261.83677083333</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12960,10 +12636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:03:47</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44261.83596064815</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13023,10 +12697,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:03:36</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44261.83583333333</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13098,10 +12770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:01:27</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44261.83434027778</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13165,10 +12835,8 @@
           <t>4228006636</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:59:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44261.8330787037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13240,10 +12908,8 @@
           <t>4228616660</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:59:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44261.83292824074</v>
       </c>
       <c r="I176" t="n">
         <v>10</v>
@@ -13307,10 +12973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:58:37</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44261.83237268519</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13374,10 +13038,8 @@
           <t>4227994274</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:58:26</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44261.83224537037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13449,10 +13111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:58:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44261.83221064815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13517,10 +13177,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:57:26</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44261.83155092593</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13592,10 +13250,8 @@
           <t>4227994274</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:56:33</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44261.8309375</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13667,10 +13323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:56:15</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44261.83072916666</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13738,10 +13392,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:56:11</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44261.83068287037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13813,10 +13465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:56:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44261.83064814815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13888,10 +13538,8 @@
           <t>4228010535</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:56:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44261.83055555556</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13963,10 +13611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:55:22</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44261.83011574074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14042,10 +13688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:55:10</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44261.82997685186</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14117,10 +13761,8 @@
           <t>4228587995</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:54:49</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44261.82973379629</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14192,10 +13834,8 @@
           <t>4228584070</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:53:45</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44261.82899305555</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14255,10 +13895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:51:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44261.82710648148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14322,10 +13960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:51:01</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44261.82709490741</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14393,10 +14029,8 @@
           <t>4228555182</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:48:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44261.82509259259</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14464,10 +14098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:47:53</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44261.82491898148</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14539,10 +14171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:46:30</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44261.82395833333</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14618,10 +14248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:45:55</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44261.82355324074</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14689,10 +14317,8 @@
           <t>4228529081</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:45:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44261.82291666666</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14756,10 +14382,8 @@
           <t>4228523874</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:43:11</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44261.82165509259</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14823,10 +14447,8 @@
           <t>4228200443</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:43:10</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44261.82164351852</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14886,10 +14508,8 @@
           <t>4228514577</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:42:37</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44261.82126157408</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14949,10 +14569,8 @@
           <t>4228521635</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:42:03</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44261.82086805555</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15020,10 +14638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:41:20</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44261.82037037037</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15091,10 +14707,8 @@
           <t>4228508293</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:40:20</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44261.81967592592</v>
       </c>
       <c r="I202" t="n">
         <v>22</v>
@@ -15166,10 +14780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:39:55</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44261.81938657408</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15245,10 +14857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:39:48</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44261.81930555555</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15316,10 +14926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:39:37</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44261.81917824074</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15391,10 +14999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:38:27</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44261.81836805555</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15466,10 +15072,8 @@
           <t>4228494740</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:38:23</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44261.81832175926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15529,10 +15133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:38:00</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44261.81805555556</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15600,10 +15202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:37:54</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44261.81798611111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15679,10 +15279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:37:39</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44261.8178125</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15747,10 +15345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:36:40</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44261.81712962963</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15818,10 +15414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:35:42</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44261.81645833333</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15897,10 +15491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:35:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44261.81611111111</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15976,10 +15568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:34:32</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44261.81564814815</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16043,10 +15633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:33:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44261.8146412037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16110,10 +15698,8 @@
           <t>4228466737</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:32:47</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44261.81443287037</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16185,10 +15771,8 @@
           <t>4228454977</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:31:54</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44261.81381944445</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16252,10 +15836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:31:23</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44261.81346064815</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16323,10 +15905,8 @@
           <t>4228440201</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:26:24</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44261.81</v>
       </c>
       <c r="I219" t="n">
         <v>21</v>
@@ -16402,10 +15982,8 @@
           <t>4228432685</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:26:13</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44261.80987268518</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16474,10 +16052,8 @@
           <t>4228435265</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:26:12</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44261.80986111111</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16553,10 +16129,8 @@
           <t>4228421774</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:24:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44261.80840277778</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16620,10 +16194,8 @@
           <t>4228006881</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:24:01</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44261.8083449074</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16687,10 +16259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:23:27</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44261.80795138889</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16758,10 +16328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:22:59</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44261.80762731482</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16829,10 +16397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:22:55</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44261.80758101852</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16900,10 +16466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:22:12</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44261.80708333333</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16971,10 +16535,8 @@
           <t>4228415106</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:21:58</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44261.80692129629</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17046,10 +16608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:21:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44261.806875</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17109,10 +16669,8 @@
           <t>4228412092</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:21:45</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44261.80677083333</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17180,10 +16738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:21:07</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44261.80633101852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17259,10 +16815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:21:00</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44261.80625</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17326,10 +16880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:19:54</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44261.80548611111</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17401,10 +16953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:19:00</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44261.80486111111</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17480,10 +17030,8 @@
           <t>4228392462</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:18:36</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44261.80458333333</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17547,10 +17095,8 @@
           <t>4228386699</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:17:17</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44261.80366898148</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17622,10 +17168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:16:23</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44261.80304398148</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17697,10 +17241,8 @@
           <t>4228380922</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:15:30</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44261.80243055556</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17776,10 +17318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:15:25</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44261.80237268518</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17851,10 +17391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:15:14</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44261.80224537037</v>
       </c>
       <c r="I240" t="n">
         <v>1146</v>
@@ -17922,10 +17460,8 @@
           <t>4228372041</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:14:44</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44261.80189814815</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17994,10 +17530,8 @@
           <t>4228368530</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:14:08</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44261.80148148148</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18069,10 +17603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:13:59</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44261.80137731481</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18140,10 +17672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:12:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44261.80063657407</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18218,10 +17748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:12:42</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44261.80048611111</v>
       </c>
       <c r="I245" t="n">
         <v>87</v>
@@ -18293,10 +17821,8 @@
           <t>4228215902</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:12:26</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44261.80030092593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18364,10 +17890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:12:20</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44261.80023148148</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18435,10 +17959,8 @@
           <t>4228354099</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:11:41</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44261.7997800926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18502,10 +18024,8 @@
           <t>4228353161</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:11:10</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44261.79942129629</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18569,10 +18089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:10:11</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44261.79873842592</v>
       </c>
       <c r="I250" t="n">
         <v>21</v>
@@ -18643,10 +18161,8 @@
           <t>4228347611</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:09:57</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44261.79857638889</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18710,10 +18226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:08:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44261.7977662037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18781,10 +18295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:08:37</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44261.79765046296</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18852,10 +18364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:08:14</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44261.79738425926</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18931,10 +18441,8 @@
           <t>4228333957</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:07:53</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44261.7971412037</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
@@ -19006,10 +18514,8 @@
           <t>4228329082</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:07:36</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44261.79694444445</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19085,10 +18591,8 @@
           <t>4228333332</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:07:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44261.79688657408</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19164,10 +18668,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:06:44</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44261.79634259259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19243,10 +18745,8 @@
           <t>4228330450</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:05:54</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44261.79576388889</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19310,10 +18810,8 @@
           <t>4228191564</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:05:41</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44261.79561342593</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19389,10 +18887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:05:40</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44261.79560185185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19456,10 +18952,8 @@
           <t>4228321492</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:04:55</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44261.79508101852</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19527,10 +19021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:04:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44261.79503472222</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19606,10 +19098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:04:36</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44261.79486111111</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19669,10 +19159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:03:39</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44261.79420138889</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19748,10 +19236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:03:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44261.79409722222</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19819,10 +19305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:02:01</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44261.79306712963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19890,10 +19374,8 @@
           <t>4228305658</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:01:47</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44261.7929050926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19962,10 +19444,8 @@
           <t>4228303101</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:01:45</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44261.79288194444</v>
       </c>
       <c r="I269" t="n">
         <v>92</v>
@@ -20041,10 +19521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:01:32</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44261.79273148148</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20120,10 +19598,8 @@
           <t>4228296152</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:00:44</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44261.79217592593</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20195,10 +19671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:00:23</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44261.79193287037</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20274,10 +19748,8 @@
           <t>4228300236</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:00:19</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44261.79188657407</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20349,10 +19821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:00:18</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44261.791875</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20425,10 +19895,8 @@
           <t>4228289693</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:00:01</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44261.79167824074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20500,10 +19968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:59:24</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44261.79125</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20567,10 +20033,8 @@
           <t>4228290929</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:59:18</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44261.79118055556</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20644,10 +20108,8 @@
           <t>4228290372</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:58:59</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44261.79096064815</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20719,10 +20181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:58:54</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44261.79090277778</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20794,10 +20254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:58:40</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44261.79074074074</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20871,10 +20329,8 @@
           <t>4228252673</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:57:44</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44261.79009259259</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20938,10 +20394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:56:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44261.78952546296</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21005,10 +20459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:56:34</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44261.78928240741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21084,10 +20536,8 @@
           <t>4227984831</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:56:23</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44261.78915509259</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21155,10 +20605,8 @@
           <t>4228275035</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:56:04</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44261.78893518518</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21219,10 +20667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:55:13</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44261.78834490741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21298,10 +20744,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:54:57</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44261.78815972222</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21369,10 +20813,8 @@
           <t>4228254682</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:54:14</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44261.78766203704</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21440,10 +20882,8 @@
           <t>4228258817</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:54:11</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44261.78762731481</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21515,10 +20955,8 @@
           <t>4228215902</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:53:59</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44261.78748842593</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21594,10 +21032,8 @@
           <t>4228258464</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:53:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44261.78747685185</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21665,10 +21101,8 @@
           <t>4228260778</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:53:47</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44261.78734953704</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21744,10 +21178,8 @@
           <t>4228252673</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:53:06</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44261.786875</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21815,10 +21247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:53:00</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44261.78680555556</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21894,10 +21324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:51:15</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44261.78559027778</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21965,10 +21393,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:51:03</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44261.78545138889</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22044,10 +21470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:50:53</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44261.78533564815</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22119,10 +21543,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:50:40</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44261.78518518519</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22190,10 +21612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:50:37</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44261.78515046297</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22257,10 +21677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:50:28</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44261.7850462963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22328,10 +21746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:50:23</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44261.78498842593</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22399,10 +21815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:49:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44261.78453703703</v>
       </c>
       <c r="I302" t="n">
         <v>24</v>
@@ -22466,10 +21880,8 @@
           <t>4228240498</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:49:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44261.78450231482</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22537,10 +21949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:49:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44261.78431712963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22612,10 +22022,8 @@
           <t>4228223823</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:48:09</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44261.7834375</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22683,10 +22091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:48:07</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44261.78341435185</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22758,10 +22164,8 @@
           <t>4228223463</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:57</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44261.78329861111</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22833,10 +22237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:53</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44261.78325231482</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22904,10 +22306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:49</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44261.78320601852</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22979,10 +22379,8 @@
           <t>4228223196</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:48</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44261.78319444445</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23054,10 +22452,8 @@
           <t>4228219565</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:43</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44261.78313657407</v>
       </c>
       <c r="I311" t="n">
         <v>28</v>
@@ -23121,10 +22517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:31</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44261.78299768519</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23188,10 +22582,8 @@
           <t>4228222108</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44261.78278935186</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23263,10 +22655,8 @@
           <t>4228225588</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:47:08</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44261.78273148148</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23334,10 +22724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:46:54</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44261.78256944445</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23413,10 +22801,8 @@
           <t>4228221525</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:46:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44261.78256944445</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23484,10 +22870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:46:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44261.78241898148</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23559,10 +22943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44261.78189814815</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23626,10 +23008,8 @@
           <t>4228215902</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:50</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44261.7818287037</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23697,10 +23077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:30</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44261.78159722222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23768,10 +23146,8 @@
           <t>4228215299</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:30</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44261.78159722222</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -23843,10 +23219,8 @@
           <t>4228204971</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:19</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44261.78146990741</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23910,10 +23284,8 @@
           <t>4228208510</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:45:12</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44261.78138888889</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23989,10 +23361,8 @@
           <t>4228208034</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:44:56</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44261.7812037037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24056,10 +23426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:44:42</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44261.78104166667</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24131,10 +23499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:44:42</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44261.78104166667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24206,10 +23572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:44:36</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44261.78097222222</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24281,10 +23645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:44:35</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44261.78096064815</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24348,10 +23710,8 @@
           <t>4228199527</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:43:54</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44261.78048611111</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24427,10 +23787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:43:51</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44261.78045138889</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24494,10 +23852,8 @@
           <t>4228202265</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:43:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44261.78042824074</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24569,10 +23925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:43:48</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44261.78041666667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24640,10 +23994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:43:21</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44261.78010416667</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24707,10 +24059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:55</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44261.77980324074</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24786,10 +24136,8 @@
           <t>4228200443</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:49</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44261.7797337963</v>
       </c>
       <c r="I335" t="n">
         <v>45</v>
@@ -24861,10 +24209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:46</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44261.77969907408</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24941,10 +24287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:42</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44261.77965277778</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25012,10 +24356,8 @@
           <t>4228194094</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:40</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44261.77962962963</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25087,10 +24429,8 @@
           <t>4228200139</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:42:39</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44261.77961805555</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -25162,10 +24502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:41:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44261.7791087963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25241,10 +24579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:41:35</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44261.77887731481</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25308,10 +24644,8 @@
           <t>4228191564</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:41:10</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44261.77858796297</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25379,10 +24713,8 @@
           <t>4228184296</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:41:01</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44261.7784837963</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25450,10 +24782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:56</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44261.77842592593</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25521,10 +24851,8 @@
           <t>4228184036</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:52</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44261.77837962963</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25596,10 +24924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:51</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44261.77836805556</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25667,10 +24993,8 @@
           <t>4228186631</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44261.77821759259</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25738,10 +25062,8 @@
           <t>4228190455</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:31</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44261.77813657407</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25805,10 +25127,8 @@
           <t>4228182779</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:11</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44261.77790509259</v>
       </c>
       <c r="I349" t="n">
         <v>14</v>
@@ -25876,10 +25196,8 @@
           <t>4228179698</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:40:06</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44261.77784722222</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25955,10 +25273,8 @@
           <t>4228179355</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:39:53</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44261.77769675926</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26022,10 +25338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:38:31</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44261.77674768519</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26101,10 +25415,8 @@
           <t>4228169817</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:38:31</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44261.77674768519</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26172,10 +25484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:38:19</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44261.7766087963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26251,10 +25561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:37:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44261.77637731482</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26326,10 +25634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:37:48</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44261.77625</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26397,10 +25703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:37:44</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44261.7762037037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26476,10 +25780,8 @@
           <t>4228170321</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:37:05</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44261.77575231482</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26555,10 +25857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:36:59</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44261.77568287037</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26622,10 +25922,8 @@
           <t>4228163758</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:36:35</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44261.77540509259</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26685,10 +25983,8 @@
           <t>4228158819</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:36:15</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44261.77517361111</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26764,10 +26060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:36:07</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44261.77508101852</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26843,10 +26137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:36:06</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44261.77506944445</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26914,10 +26206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:35:55</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44261.77494212963</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26982,10 +26272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:35:54</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44261.77493055556</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27049,10 +26337,8 @@
           <t>4228162251</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:35:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44261.77479166666</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27128,10 +26414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:35:32</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44261.77467592592</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27199,10 +26483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:35:29</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44261.7746412037</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27274,10 +26556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:58</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44261.77428240741</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27345,10 +26625,8 @@
           <t>4228153407</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:54</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44261.77423611111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27408,10 +26686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:51</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44261.77420138889</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27480,10 +26756,8 @@
           <t>4228153052</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:42</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44261.77409722222</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27551,10 +26825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:21</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44261.77385416667</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27626,10 +26898,8 @@
           <t>4228155179</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:34:13</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44261.77376157408</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27697,10 +26967,8 @@
           <t>4228149196</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:33:54</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44261.77354166667</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27776,10 +27044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:33:40</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44261.77337962963</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27847,10 +27113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:33:38</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44261.77335648148</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27910,10 +27174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:33:13</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44261.77306712963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27977,10 +27239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:32:45</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44261.77274305555</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28044,10 +27304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:32:34</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44261.77261574074</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28115,10 +27373,8 @@
           <t>4228142276</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:32:34</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44261.77261574074</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28194,10 +27450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:32:19</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44261.77244212963</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28269,10 +27523,8 @@
           <t>4228138490</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:32:06</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44261.77229166667</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28348,10 +27600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:31:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44261.77215277778</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28415,10 +27665,8 @@
           <t>4228137142</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:31:20</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44261.77175925926</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28494,10 +27742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:30:52</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44261.77143518518</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28565,10 +27811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:30:46</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44261.77136574074</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28637,10 +27881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:30:19</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44261.77105324074</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28704,10 +27946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:58</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44261.77081018518</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28775,10 +28015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:54</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44261.77076388889</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28850,10 +28088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:54</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44261.77076388889</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28921,10 +28157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:49</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44261.77070601852</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -28988,10 +28222,8 @@
           <t>4228082740</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44261.77061342593</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -29067,10 +28299,8 @@
           <t>4228131950</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:40</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44261.77060185185</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29138,10 +28368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:16</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44261.77032407407</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29217,10 +28445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:06</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44261.77020833334</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29288,10 +28514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:29:00</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44261.77013888889</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29360,10 +28584,8 @@
           <t>4228122954</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:28:56</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44261.77009259259</v>
       </c>
       <c r="I398" t="n">
         <v>29</v>
@@ -29431,10 +28653,8 @@
           <t>4228125256</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:28:32</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44261.76981481481</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29502,10 +28722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:28:04</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44261.76949074074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29581,10 +28799,8 @@
           <t>4228006881</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:27:47</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44261.76929398148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29652,10 +28868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:27:18</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44261.76895833333</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29731,10 +28945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:27:13</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44261.76890046296</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29794,10 +29006,8 @@
           <t>4228112892</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:27:13</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44261.76890046296</v>
       </c>
       <c r="I404" t="n">
         <v>15</v>
@@ -29857,10 +29067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:27:06</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44261.76881944444</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29934,10 +29142,8 @@
           <t>4228112283</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:51</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44261.76864583333</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -30013,10 +29219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44261.76844907407</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30080,10 +29284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:25</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44261.76834490741</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30155,10 +29357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:06</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44261.768125</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30226,10 +29426,8 @@
           <t>4228110946</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:01</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44261.76806712963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30297,10 +29495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:26:00</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44261.76805555556</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30368,10 +29564,8 @@
           <t>4228110842</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:25:57</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44261.76802083333</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30444,10 +29638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:25:27</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44261.76767361111</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30515,10 +29707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:25:20</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44261.76759259259</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30594,10 +29784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:25:18</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44261.76756944445</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30673,10 +29861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:24:56</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44261.76731481482</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -30744,10 +29930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:24:49</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44261.76723379629</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -30819,10 +30003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:24:47</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44261.76721064815</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30898,10 +30080,8 @@
           <t>4228102414</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:24:04</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44261.76671296296</v>
       </c>
       <c r="I419" t="n">
         <v>2</v>
@@ -30970,10 +30150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:24:02</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44261.76668981482</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31049,10 +30227,8 @@
           <t>4228097505</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:23:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44261.76662037037</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31124,10 +30300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:23:41</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44261.76644675926</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31203,10 +30377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:23:23</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44261.76623842592</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31278,10 +30450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:22:15</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44261.76545138889</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31353,10 +30523,8 @@
           <t>4228088709</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:56</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44261.76523148148</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31428,10 +30596,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:45</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44261.76510416667</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31500,10 +30666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:31</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44261.76494212963</v>
       </c>
       <c r="I427" t="n">
         <v>486</v>
@@ -31571,10 +30735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:23</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44261.76484953704</v>
       </c>
       <c r="I428" t="n">
         <v>756</v>
@@ -31642,10 +30804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:22</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44261.76483796296</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31713,10 +30873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:21</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44261.76482638889</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31793,10 +30951,8 @@
           <t>4228082740</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:07</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44261.76466435185</v>
       </c>
       <c r="I431" t="n">
         <v>27</v>
@@ -31864,10 +31020,8 @@
           <t>4228082750</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:21:07</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44261.76466435185</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31944,10 +31098,8 @@
           <t>4228086893</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:55</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44261.76452546296</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -32023,10 +31175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:51</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44261.76447916667</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32102,10 +31252,8 @@
           <t>4228082238</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:49</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44261.76445601852</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32173,10 +31321,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:23</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44261.76415509259</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32252,10 +31398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:22</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44261.76414351852</v>
       </c>
       <c r="I437" t="n">
         <v>11</v>
@@ -32319,10 +31463,8 @@
           <t>4228081126</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:20:08</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44261.76398148148</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32398,10 +31540,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:19:50</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44261.76377314814</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32477,10 +31617,8 @@
           <t>4228074147</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:19:19</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44261.76341435185</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32556,10 +31694,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:19:08</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44261.76328703704</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32635,10 +31771,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:55</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44261.76313657407</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32714,10 +31848,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:50</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44261.76307870371</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32793,10 +31925,8 @@
           <t>4228068957</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:49</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44261.76306712963</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32860,10 +31990,8 @@
           <t>4227978557</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:42</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44261.76298611111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32935,10 +32063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:26</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44261.76280092593</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33014,10 +32140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:10</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44261.76261574074</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33085,10 +32209,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:18:08</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44261.76259259259</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33160,10 +32282,8 @@
           <t>4228035325</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:46</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44261.76233796297</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33235,10 +32355,8 @@
           <t>4228067117</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:45</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44261.76232638889</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33314,10 +32432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:38</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44261.76224537037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33389,10 +32505,8 @@
           <t>4228063118</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:30</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44261.76215277778</v>
       </c>
       <c r="I452" t="n">
         <v>4</v>
@@ -33460,10 +32574,8 @@
           <t>4228062344</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:03</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44261.76184027778</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33536,10 +32648,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:17:01</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44261.76181712963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33603,10 +32713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:56</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44261.76175925926</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33678,10 +32786,8 @@
           <t>4228065586</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:52</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44261.76171296297</v>
       </c>
       <c r="I456" t="n">
         <v>3</v>
@@ -33753,10 +32859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:42</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44261.76159722222</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33832,10 +32936,8 @@
           <t>4228065160</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:37</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44261.76153935185</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33908,10 +33010,8 @@
           <t>4228061197</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:22</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44261.76136574074</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -33983,10 +33083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:18</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44261.76131944444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34046,10 +33144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:14</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44261.76127314815</v>
       </c>
       <c r="I461" t="n">
         <v>3</v>
@@ -34113,10 +33209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:16:12</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44261.76125</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34188,10 +33282,8 @@
           <t>4228058067</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:15:53</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44261.7610300926</v>
       </c>
       <c r="I463" t="n">
         <v>43</v>
@@ -34251,10 +33343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:15:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44261.7609837963</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34326,10 +33416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:15:39</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44261.76086805556</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34397,10 +33485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:15:12</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44261.76055555556</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34468,10 +33554,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:15:06</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44261.76048611111</v>
       </c>
       <c r="I467" t="n">
         <v>8</v>
@@ -34539,10 +33623,8 @@
           <t>4228048366</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:45</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44261.76024305556</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34614,10 +33696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:40</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44261.76018518519</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34681,10 +33761,8 @@
           <t>4228055752</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:35</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44261.76012731482</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34760,10 +33838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:34</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44261.76011574074</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34823,10 +33899,8 @@
           <t>4228055706</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:33</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44261.76010416666</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34902,10 +33976,8 @@
           <t>4228051674</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:32</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44261.76009259259</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34969,10 +34041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:31</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44261.76008101852</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35048,10 +34118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:23</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44261.75998842593</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35115,10 +34183,8 @@
           <t>4228047656</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:20</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44261.7599537037</v>
       </c>
       <c r="I476" t="n">
         <v>8</v>
@@ -35194,10 +34260,8 @@
           <t>4228044990</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:14:09</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44261.75982638889</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35269,10 +34333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:56</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44261.75967592592</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35342,10 +34404,8 @@
           <t>4228046712</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:49</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44261.75959490741</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35421,10 +34481,8 @@
           <t>4228040069</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:47</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44261.75957175926</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35496,10 +34554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:44</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44261.75953703704</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35571,10 +34627,8 @@
           <t>4228050286</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:42</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44261.75951388889</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35638,10 +34692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:38</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44261.75946759259</v>
       </c>
       <c r="I483" t="n">
         <v>17</v>
@@ -35701,10 +34753,8 @@
           <t>4228050055</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:34</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44261.75942129629</v>
       </c>
       <c r="I484" t="n">
         <v>19</v>
@@ -35780,10 +34830,8 @@
           <t>4228039945</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:30</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44261.759375</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35855,10 +34903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:22</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44261.75928240741</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35930,10 +34976,8 @@
           <t>4228043413</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:14</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44261.75918981482</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36001,10 +35045,8 @@
           <t>4228045638</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:13</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44261.75917824074</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36072,10 +35114,8 @@
           <t>4228045625</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:12</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44261.75916666666</v>
       </c>
       <c r="I489" t="n">
         <v>2</v>
@@ -36139,10 +35179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:10</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44261.75914351852</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36212,10 +35250,8 @@
           <t>4228039282</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:07</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44261.75910879629</v>
       </c>
       <c r="I491" t="n">
         <v>6</v>
@@ -36287,10 +35323,8 @@
           <t>4228039256</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:13:06</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44261.75909722222</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36358,10 +35392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:55</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44261.75896990741</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36428,10 +35460,8 @@
           <t>4228038841</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:52</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44261.75893518519</v>
       </c>
       <c r="I494" t="n">
         <v>105</v>
@@ -36503,10 +35533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:47</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44261.75887731482</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36578,10 +35606,8 @@
           <t>4228034680</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:41</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44261.75880787037</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36657,10 +35683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:35</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44261.75873842592</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -36724,10 +35748,8 @@
           <t>4228017526</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:30</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44261.75868055555</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36791,10 +35813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:12</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44261.75847222222</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -36866,10 +35886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:09</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44261.7584375</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36933,10 +35951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:12:05</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44261.7583912037</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37012,10 +36028,8 @@
           <t>4228041138</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:57</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44261.75829861111</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37091,10 +36105,8 @@
           <t>4228040958</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:51</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44261.75822916667</v>
       </c>
       <c r="I503" t="n">
         <v>94</v>
@@ -37166,10 +36178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:50</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44261.75821759259</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37245,10 +36255,8 @@
           <t>4228032745</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:35</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44261.75804398148</v>
       </c>
       <c r="I505" t="n">
         <v>3</v>
@@ -37325,10 +36333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:33</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44261.75802083333</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37392,10 +36398,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:33</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44261.75802083333</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37472,10 +36476,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:30</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44261.75798611111</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37543,10 +36545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:22</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44261.75789351852</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37614,10 +36614,8 @@
           <t>4228040069</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:20</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44261.75787037037</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37693,10 +36691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:05</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44261.75769675926</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37760,10 +36756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:11:01</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44261.75765046296</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37831,10 +36825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:56</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44261.75759259259</v>
       </c>
       <c r="I513" t="n">
         <v>11</v>
@@ -37902,10 +36894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:54</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44261.75756944445</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37982,10 +36972,8 @@
           <t>4228035325</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:47</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44261.75748842592</v>
       </c>
       <c r="I515" t="n">
         <v>7</v>
@@ -38049,10 +37037,8 @@
           <t>4228029047</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:45</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44261.75746527778</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38124,10 +37110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:36</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44261.75736111111</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38199,10 +37183,8 @@
           <t>4228024781</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:27</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44261.75725694445</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38274,10 +37256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:14</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44261.75710648148</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38345,10 +37325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:11</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44261.75707175926</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38424,10 +37402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:07</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44261.75702546296</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38491,10 +37467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:10:02</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44261.75696759259</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38562,10 +37536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:55</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44261.75688657408</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38629,10 +37601,8 @@
           <t>4228023823</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:52</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44261.75685185185</v>
       </c>
       <c r="I524" t="n">
         <v>13</v>
@@ -38692,10 +37662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:41</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44261.75672453704</v>
       </c>
       <c r="I525" t="n">
         <v>157</v>
@@ -38767,10 +37735,8 @@
           <t>4228023228</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:31</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44261.7566087963</v>
       </c>
       <c r="I526" t="n">
         <v>8</v>
@@ -38846,10 +37812,8 @@
           <t>4228022900</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:20</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44261.75648148148</v>
       </c>
       <c r="I527" t="n">
         <v>20</v>
@@ -38917,10 +37881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44261.75644675926</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38988,10 +37950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:17</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44261.75644675926</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39059,10 +38019,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:16</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44261.75643518518</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39138,10 +38096,8 @@
           <t>4228026321</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:12</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44261.75638888889</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39213,10 +38169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:11</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44261.75637731481</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39288,10 +38242,8 @@
           <t>4228022608</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:11</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44261.75637731481</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39355,10 +38307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:10</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44261.75636574074</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39434,10 +38384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:08</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44261.75634259259</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39505,10 +38453,8 @@
           <t>4228021680</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:06</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44261.75631944444</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39576,10 +38522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:09:05</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44261.75630787037</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39655,10 +38599,8 @@
           <t>4228025862</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:56</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44261.75620370371</v>
       </c>
       <c r="I538" t="n">
         <v>4</v>
@@ -39726,10 +38668,8 @@
           <t>4228022125</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:52</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44261.75615740741</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39801,10 +38741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:51</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44261.75614583334</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39876,10 +38814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:47</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44261.75609953704</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39947,10 +38883,8 @@
           <t>4228006881</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:40</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44261.75601851852</v>
       </c>
       <c r="I542" t="n">
         <v>28</v>
@@ -40022,10 +38956,8 @@
           <t>4228017561</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:40</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44261.75601851852</v>
       </c>
       <c r="I543" t="n">
         <v>7</v>
@@ -40093,10 +39025,8 @@
           <t>4228017526</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:39</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44261.75600694444</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40164,10 +39094,8 @@
           <t>4228021680</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:37</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44261.7559837963</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40239,10 +39167,8 @@
           <t>4228017102</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:24</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44261.75583333334</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40318,10 +39244,8 @@
           <t>4228014619</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:14</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44261.75571759259</v>
       </c>
       <c r="I547" t="n">
         <v>2</v>
@@ -40390,10 +39314,8 @@
           <t>4228020743</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:03</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44261.75559027777</v>
       </c>
       <c r="I548" t="n">
         <v>44</v>
@@ -40465,10 +39387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:01</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44261.75556712963</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40536,10 +39456,8 @@
           <t>4228020652</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:00</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44261.75555555556</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40603,10 +39521,8 @@
           <t>4228020665</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:08:00</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44261.75555555556</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40670,10 +39586,8 @@
           <t>4228020597</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:58</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44261.75553240741</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40743,10 +39657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:52</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44261.75546296296</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40822,10 +39734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:43</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44261.7553587963</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40889,10 +39799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:41</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44261.75533564815</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40958,10 +39866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:36</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44261.75527777777</v>
       </c>
       <c r="I556" t="n">
         <v>976</v>
@@ -41030,10 +39936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:32</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44261.75523148148</v>
       </c>
       <c r="I557" t="n">
         <v>57</v>
@@ -41101,10 +40005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:08</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44261.7549537037</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41172,10 +40074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:07:05</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44261.75491898148</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41235,10 +40135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:58</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44261.75483796297</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41311,10 +40209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:51</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44261.75475694444</v>
       </c>
       <c r="I561" t="n">
         <v>316</v>
@@ -41383,10 +40279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:51</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44261.75475694444</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41462,10 +40356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:50</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44261.75474537037</v>
       </c>
       <c r="I563" t="n">
         <v>95</v>
@@ -41533,10 +40425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:41</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44261.7546412037</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41612,10 +40502,8 @@
           <t>4228011860</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:38</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44261.75460648148</v>
       </c>
       <c r="I565" t="n">
         <v>11</v>
@@ -41679,10 +40567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:21</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44261.75440972222</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41754,10 +40640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:19</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44261.75438657407</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41825,10 +40709,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:19</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44261.75438657407</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41904,10 +40786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:17</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44261.75436342593</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41975,10 +40855,8 @@
           <t>4228010897</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:06:05</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44261.75422453704</v>
       </c>
       <c r="I570" t="n">
         <v>33</v>
@@ -42050,10 +40928,8 @@
           <t>4228002810</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:57</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44261.75413194444</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42117,10 +40993,8 @@
           <t>4228010535</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:52</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44261.75407407407</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42196,10 +41070,8 @@
           <t>4228006881</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:45</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44261.75399305556</v>
       </c>
       <c r="I573" t="n">
         <v>37</v>
@@ -42271,10 +41143,8 @@
           <t>4228010301</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:43</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44261.7539699074</v>
       </c>
       <c r="I574" t="n">
         <v>31</v>
@@ -42338,10 +41208,8 @@
           <t>4228006636</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:36</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44261.75388888889</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42409,10 +41277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:30</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44261.75381944444</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42472,10 +41338,8 @@
           <t>4227999560</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:18</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44261.75368055556</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42552,10 +41416,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:16</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44261.7536574074</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42627,10 +41489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:10</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44261.75358796296</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42702,10 +41562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:09</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44261.75357638889</v>
       </c>
       <c r="I580" t="n">
         <v>63</v>
@@ -42781,10 +41639,8 @@
           <t>4227999276</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:09</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44261.75357638889</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42848,10 +41704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:08</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44261.75356481481</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -42926,10 +41780,8 @@
           <t>4228001374</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:07</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44261.75355324074</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42989,10 +41841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:05:01</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44261.7534837963</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43064,10 +41914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:55</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44261.75341435185</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43131,10 +41979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:48</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44261.75333333333</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43194,10 +42040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:43</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44261.75327546296</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43273,10 +42117,8 @@
           <t>4228000614</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:42</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44261.75326388889</v>
       </c>
       <c r="I588" t="n">
         <v>6</v>
@@ -43348,10 +42190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:42</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44261.75326388889</v>
       </c>
       <c r="I589" t="n">
         <v>2</v>
@@ -43419,10 +42259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:31</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44261.75313657407</v>
       </c>
       <c r="I590" t="n">
         <v>454</v>
@@ -43486,10 +42324,8 @@
           <t>4228000176</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:28</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44261.75310185185</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43566,10 +42402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:28</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44261.75310185185</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43645,10 +42479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:25</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44261.75306712963</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43724,10 +42556,8 @@
           <t>4227997898</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:24</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44261.75305555556</v>
       </c>
       <c r="I594" t="n">
         <v>4</v>
@@ -43795,10 +42625,8 @@
           <t>4227997909</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:24</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44261.75305555556</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43874,10 +42702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:23</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44261.75304398148</v>
       </c>
       <c r="I596" t="n">
         <v>8</v>
@@ -43941,10 +42767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:21</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44261.75302083333</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44012,10 +42836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:18</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44261.75298611111</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44091,10 +42913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:17</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44261.75297453703</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44170,10 +42990,8 @@
           <t>4227994274</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:14</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44261.75293981482</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44245,10 +43063,8 @@
           <t>4227994245</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:13</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44261.75292824074</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44312,10 +43128,8 @@
           <t>4227997537</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:12</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44261.75291666666</v>
       </c>
       <c r="I602" t="n">
         <v>35</v>
@@ -44391,10 +43205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:11</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44261.7529050926</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44462,10 +43274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:11</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44261.7529050926</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44533,10 +43343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:10</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44261.75289351852</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44612,10 +43420,8 @@
           <t>4227994009</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:05</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44261.75283564815</v>
       </c>
       <c r="I606" t="n">
         <v>3</v>
@@ -44691,10 +43497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:04:00</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44261.75277777778</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -44770,10 +43574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:58</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44261.75275462963</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44841,10 +43643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:56</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44261.75273148148</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44908,10 +43708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:56</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44261.75273148148</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44987,10 +43785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:55</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44261.75271990741</v>
       </c>
       <c r="I611" t="n">
         <v>36</v>
@@ -45050,10 +43846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:54</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44261.75270833333</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45125,10 +43919,8 @@
           <t>4227996833</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:48</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44261.75263888889</v>
       </c>
       <c r="I613" t="n">
         <v>4</v>
@@ -45200,10 +43992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:46</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44261.75261574074</v>
       </c>
       <c r="I614" t="n">
         <v>2</v>
@@ -45279,10 +44069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:37</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44261.75251157407</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45354,10 +44142,8 @@
           <t>4227996448</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:36</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44261.7525</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45425,10 +44211,8 @@
           <t>4227988419</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:30</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44261.75243055556</v>
       </c>
       <c r="I617" t="n">
         <v>2</v>
@@ -45496,10 +44280,8 @@
           <t>4227996189</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:28</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44261.75240740741</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45563,10 +44345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:16</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44261.75226851852</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45630,10 +44410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:16</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44261.75226851852</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -45710,10 +44488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:11</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44261.75221064815</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45777,10 +44553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:09</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44261.7521875</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -45856,10 +44630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:08</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44261.75217592593</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45935,10 +44707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:04</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44261.75212962963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46014,10 +44784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:03:00</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44261.75208333333</v>
       </c>
       <c r="I625" t="n">
         <v>59</v>
@@ -46089,10 +44857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:59</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44261.75207175926</v>
       </c>
       <c r="I626" t="n">
         <v>5</v>
@@ -46164,10 +44930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:59</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44261.75207175926</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46235,10 +44999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:52</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44261.75199074074</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46303,10 +45065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:51</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44261.75197916666</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46370,10 +45130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:51</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44261.75197916666</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46449,10 +45207,8 @@
           <t>4227987124</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:48</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44261.75194444445</v>
       </c>
       <c r="I631" t="n">
         <v>4</v>
@@ -46516,10 +45272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:47</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44261.75193287037</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46587,10 +45341,8 @@
           <t>4227984972</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:47</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44261.75193287037</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46667,10 +45419,8 @@
           <t>4227984831</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:43</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44261.75188657407</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46742,10 +45492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:38</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44261.7518287037</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46821,10 +45569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:38</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44261.7518287037</v>
       </c>
       <c r="I636" t="n">
         <v>1</v>
@@ -46900,10 +45646,8 @@
           <t>4227991409</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:37</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44261.75181712963</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46979,10 +45723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:32</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44261.75175925926</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47050,10 +45792,8 @@
           <t>4227984480</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:32</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44261.75175925926</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47121,10 +45861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:28</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44261.75171296296</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47192,10 +45930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:26</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44261.75168981482</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47267,10 +46003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:26</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44261.75168981482</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47334,10 +46068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:26</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44261.75168981482</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47416,10 +46148,8 @@
           <t>4227991015</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:23</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44261.75165509259</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47491,10 +46221,8 @@
           <t>4227984146</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:21</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44261.75163194445</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47570,10 +46298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:18</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44261.75159722222</v>
       </c>
       <c r="I646" t="n">
         <v>12</v>
@@ -47645,10 +46371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:13</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44261.75153935186</v>
       </c>
       <c r="I647" t="n">
         <v>4</v>
@@ -47716,10 +46440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:12</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44261.75152777778</v>
       </c>
       <c r="I648" t="n">
         <v>7</v>
@@ -47795,10 +46517,8 @@
           <t>4227985906</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:08</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44261.75148148148</v>
       </c>
       <c r="I649" t="n">
         <v>49</v>
@@ -47862,10 +46582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:07</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44261.75146990741</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47929,10 +46647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:04</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44261.75143518519</v>
       </c>
       <c r="I651" t="n">
         <v>389</v>
@@ -48000,10 +46716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:02:03</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44261.75142361111</v>
       </c>
       <c r="I652" t="n">
         <v>12</v>
@@ -48071,10 +46785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:56</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44261.75134259259</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48134,10 +46846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:54</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44261.75131944445</v>
       </c>
       <c r="I654" t="n">
         <v>841</v>
@@ -48209,10 +46919,8 @@
           <t>4227974972</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:49</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44261.75126157407</v>
       </c>
       <c r="I655" t="n">
         <v>2</v>
@@ -48276,10 +46984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:48</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44261.75125</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48355,10 +47061,8 @@
           <t>4227982817</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:41</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44261.75116898148</v>
       </c>
       <c r="I657" t="n">
         <v>2</v>
@@ -48422,10 +47126,8 @@
           <t>4227982673</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:37</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44261.75112268519</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -48494,10 +47196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:34</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44261.75108796296</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48573,10 +47273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:30</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44261.75104166667</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
@@ -48652,10 +47350,8 @@
           <t>4227974367</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:30</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44261.75104166667</v>
       </c>
       <c r="I661" t="n">
         <v>6</v>
@@ -48727,10 +47423,8 @@
           <t>4227979528</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:28</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44261.75101851852</v>
       </c>
       <c r="I662" t="n">
         <v>1</v>
@@ -48806,10 +47500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:25</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44261.75098379629</v>
       </c>
       <c r="I663" t="n">
         <v>3</v>
@@ -48885,10 +47577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:24</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44261.75097222222</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -48956,10 +47646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:24</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44261.75097222222</v>
       </c>
       <c r="I665" t="n">
         <v>8</v>
@@ -49035,10 +47723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:19</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44261.75091435185</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49102,10 +47788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:19</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44261.75091435185</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49173,10 +47857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:15</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44261.75086805555</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49252,10 +47934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:13</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44261.75084490741</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49323,10 +48003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:11</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44261.75082175926</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49398,10 +48076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:09</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44261.75079861111</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49469,10 +48145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:05</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44261.75075231482</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49540,10 +48214,8 @@
           <t>4227973624</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:05</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44261.75075231482</v>
       </c>
       <c r="I673" t="n">
         <v>1</v>
@@ -49607,10 +48279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:02</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44261.75071759259</v>
       </c>
       <c r="I674" t="n">
         <v>17</v>
@@ -49682,10 +48352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:02</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44261.75071759259</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49757,10 +48425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:01:00</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44261.75069444445</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49836,10 +48502,8 @@
           <t>4227981410</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:58</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44261.75067129629</v>
       </c>
       <c r="I677" t="n">
         <v>25</v>
@@ -49899,10 +48563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:56</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44261.75064814815</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -49978,10 +48640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:54</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44261.750625</v>
       </c>
       <c r="I679" t="n">
         <v>1265</v>
@@ -50049,10 +48709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:54</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44261.750625</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50124,10 +48782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:51</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44261.75059027778</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50203,10 +48859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:48</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44261.75055555555</v>
       </c>
       <c r="I682" t="n">
         <v>3</v>
@@ -50282,10 +48936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:46</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44261.75053240741</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50353,10 +49005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:45</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44261.75052083333</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -50432,10 +49082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:44</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44261.75050925926</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50499,10 +49147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:42</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44261.75048611111</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50578,10 +49224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:41</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44261.75047453704</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50657,10 +49301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:40</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44261.75046296296</v>
       </c>
       <c r="I688" t="n">
         <v>7</v>
@@ -50732,10 +49374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:39</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44261.75045138889</v>
       </c>
       <c r="I689" t="n">
         <v>4</v>
@@ -50803,10 +49443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:37</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44261.75042824074</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -50874,10 +49512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:37</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44261.75042824074</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50949,10 +49585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:36</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44261.75041666667</v>
       </c>
       <c r="I692" t="n">
         <v>1</v>
@@ -51028,10 +49662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:33</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44261.75038194445</v>
       </c>
       <c r="I693" t="n">
         <v>22</v>
@@ -51095,10 +49727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:33</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44261.75038194445</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51170,10 +49800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:30</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44261.75034722222</v>
       </c>
       <c r="I695" t="n">
         <v>1008</v>
@@ -51241,10 +49869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:30</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44261.75034722222</v>
       </c>
       <c r="I696" t="n">
         <v>1</v>
@@ -51308,10 +49934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:30</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44261.75034722222</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51387,10 +50011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:27</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44261.7503125</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -51454,10 +50076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:27</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44261.7503125</v>
       </c>
       <c r="I699" t="n">
         <v>1</v>
@@ -51529,10 +50149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:27</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44261.7503125</v>
       </c>
       <c r="I700" t="n">
         <v>1</v>
@@ -51604,10 +50222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:25</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44261.75028935185</v>
       </c>
       <c r="I701" t="n">
         <v>11</v>
@@ -51683,10 +50299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:24</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44261.75027777778</v>
       </c>
       <c r="I702" t="n">
         <v>2</v>
@@ -51758,10 +50372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:23</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44261.7502662037</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
@@ -51837,10 +50449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-03-06 18:00:18</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44261.75020833333</v>
       </c>
       <c r="I704" t="n">
         <v>2</v>
